--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_DEV_\_DEV_AUTO_\Plip_Testeur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065663B9-A612-49BB-8CB1-75786ABC3F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065D7C8-00E0-477D-A03F-9F9DCB3E1079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656D1376-703E-4C8F-82A3-E65BD177AD09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="16">
   <si>
     <t>Émetteur</t>
   </si>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6DED5F-CB37-4123-8BCC-C9AC9F36DF92}">
-  <dimension ref="A2:K36"/>
+  <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,14 +1187,191 @@
         <v>7</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="4">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
+  <mergeCells count="28">
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C27:C28"/>
@@ -1205,11 +1382,12 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
